--- a/products/items.xlsx
+++ b/products/items.xlsx
@@ -46,7 +46,7 @@
     <t>photos</t>
   </si>
   <si>
-    <t>Plumbing 🌟Available 🔔🚽$</t>
+    <t>Plumbing 🌟Available 🔔🚽1</t>
   </si>
   <si>
     <t>Home &amp; Kitchen; Bath; Other Bath</t>
@@ -58,22 +58,22 @@
     <t>Contact me for further details</t>
   </si>
   <si>
-    <t>Plumbing; toilets; valves; water heater; sinks; clogged; leaks; vanities; clogs; estimate; leakage; faucet; shower; plumber</t>
+    <t>Plumbing; toilets; valves</t>
   </si>
   <si>
     <t>1.png</t>
   </si>
   <si>
-    <t>Plumbing 🚿♦️Available 🔺🔷$</t>
+    <t>Plumbing 🚿♦️Available 🔺🔷2</t>
   </si>
   <si>
-    <t>1.png; 2.png</t>
+    <t>2.png</t>
   </si>
   <si>
     <t>Plumbing 💯Available 🔔🔴$</t>
   </si>
   <si>
-    <t>3.png; 4.png; 5png</t>
+    <t>3.png</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -146,6 +146,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -157,6 +160,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,20 +475,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="4.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="4.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -510,7 +516,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2"/>
@@ -544,14 +550,14 @@
       <c r="H2" s="5">
         <v>77003</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
@@ -578,14 +584,14 @@
       <c r="H3" s="5">
         <v>77004</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
@@ -612,14 +618,14 @@
       <c r="H4" s="5">
         <v>77005</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4"/>
@@ -629,13 +635,13 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
@@ -645,13 +651,13 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4"/>
@@ -661,13 +667,13 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4"/>
@@ -677,13 +683,13 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="4"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4"/>
@@ -693,15 +699,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="4"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -709,15 +715,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -728,12 +734,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -744,12 +750,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -760,12 +766,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -776,12 +782,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -792,12 +798,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -808,12 +814,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -824,12 +830,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -840,10 +846,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4"/>
@@ -857,9 +863,9 @@
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4"/>
@@ -873,9 +879,9 @@
       <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4"/>
@@ -889,9 +895,9 @@
       <c r="I21" s="4"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4"/>
@@ -905,9 +911,9 @@
       <c r="I22" s="4"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4"/>
@@ -921,9 +927,9 @@
       <c r="I23" s="4"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4"/>
@@ -937,8 +943,8 @@
       <c r="I24" s="4"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
       <c r="N24" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -953,8 +959,8 @@
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -969,8 +975,8 @@
       <c r="I26" s="4"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
       <c r="N26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -985,8 +991,8 @@
       <c r="I27" s="4"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
       <c r="N27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -1001,8 +1007,8 @@
       <c r="I28" s="4"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
       <c r="N28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -1017,8 +1023,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -1033,8 +1039,8 @@
       <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
       <c r="N30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -1049,8 +1055,8 @@
       <c r="I31" s="4"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
       <c r="N31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -1065,8 +1071,8 @@
       <c r="I32" s="4"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -1081,8 +1087,8 @@
       <c r="I33" s="4"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
       <c r="N33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -1097,8 +1103,8 @@
       <c r="I34" s="4"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
       <c r="N34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -1113,8 +1119,8 @@
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
       <c r="N35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -1129,8 +1135,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
       <c r="N36" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -1145,8 +1151,8 @@
       <c r="I37" s="4"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
       <c r="N37" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -1161,8 +1167,8 @@
       <c r="I38" s="4"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -1177,8 +1183,8 @@
       <c r="I39" s="4"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
       <c r="N39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -1193,8 +1199,8 @@
       <c r="I40" s="4"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
       <c r="N40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -1209,8 +1215,8 @@
       <c r="I41" s="4"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
       <c r="N41" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -1225,8 +1231,8 @@
       <c r="I42" s="4"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="N42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -1241,8 +1247,8 @@
       <c r="I43" s="4"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
       <c r="N43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -1257,8 +1263,8 @@
       <c r="I44" s="4"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -1273,8 +1279,8 @@
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -1289,8 +1295,8 @@
       <c r="I46" s="4"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -1305,8 +1311,8 @@
       <c r="I47" s="4"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -1322,7 +1328,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="6"/>
+      <c r="M48" s="7"/>
       <c r="N48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -1338,7 +1344,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="6"/>
+      <c r="M49" s="7"/>
       <c r="N49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -1354,7 +1360,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="6"/>
+      <c r="M50" s="7"/>
       <c r="N50" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -1370,7 +1376,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="6"/>
+      <c r="M51" s="7"/>
       <c r="N51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -1386,7 +1392,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="6"/>
+      <c r="M52" s="7"/>
       <c r="N52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -1402,7 +1408,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="6"/>
+      <c r="M53" s="7"/>
       <c r="N53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -1418,7 +1424,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="6"/>
+      <c r="M54" s="7"/>
       <c r="N54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -1434,7 +1440,7 @@
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="6"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -1450,7 +1456,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="6"/>
+      <c r="M56" s="7"/>
       <c r="N56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -1466,7 +1472,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="6"/>
+      <c r="M57" s="7"/>
       <c r="N57" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -1482,7 +1488,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="6"/>
+      <c r="M58" s="7"/>
       <c r="N58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -1498,7 +1504,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="6"/>
+      <c r="M59" s="7"/>
       <c r="N59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -1514,7 +1520,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="6"/>
+      <c r="M60" s="7"/>
       <c r="N60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -1530,7 +1536,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="6"/>
+      <c r="M61" s="7"/>
       <c r="N61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -1546,7 +1552,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="6"/>
+      <c r="M62" s="7"/>
       <c r="N62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -1562,7 +1568,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="6"/>
+      <c r="M63" s="7"/>
       <c r="N63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
@@ -1578,7 +1584,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="6"/>
+      <c r="M64" s="7"/>
       <c r="N64" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
@@ -1594,7 +1600,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="6"/>
+      <c r="M65" s="7"/>
       <c r="N65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
@@ -1610,7 +1616,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="6"/>
+      <c r="M66" s="7"/>
       <c r="N66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
@@ -1626,7 +1632,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="6"/>
+      <c r="M67" s="7"/>
       <c r="N67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -1642,7 +1648,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="6"/>
+      <c r="M68" s="7"/>
       <c r="N68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -1658,7 +1664,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="6"/>
+      <c r="M69" s="7"/>
       <c r="N69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
@@ -1674,7 +1680,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="6"/>
+      <c r="M70" s="7"/>
       <c r="N70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
@@ -1690,7 +1696,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="6"/>
+      <c r="M71" s="7"/>
       <c r="N71" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -1706,7 +1712,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="6"/>
+      <c r="M72" s="7"/>
       <c r="N72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -1722,7 +1728,7 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="6"/>
+      <c r="M73" s="7"/>
       <c r="N73" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -1738,7 +1744,7 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="6"/>
+      <c r="M74" s="7"/>
       <c r="N74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -1754,7 +1760,7 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="6"/>
+      <c r="M75" s="7"/>
       <c r="N75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -1770,7 +1776,7 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="6"/>
+      <c r="M76" s="7"/>
       <c r="N76" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -1786,7 +1792,7 @@
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="6"/>
+      <c r="M77" s="7"/>
       <c r="N77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -1802,7 +1808,7 @@
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="6"/>
+      <c r="M78" s="7"/>
       <c r="N78" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -1818,7 +1824,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="6"/>
+      <c r="M79" s="7"/>
       <c r="N79" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -1834,7 +1840,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="6"/>
+      <c r="M80" s="7"/>
       <c r="N80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -1850,7 +1856,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="6"/>
+      <c r="M81" s="7"/>
       <c r="N81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -1866,7 +1872,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="6"/>
+      <c r="M82" s="7"/>
       <c r="N82" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -1882,7 +1888,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="6"/>
+      <c r="M83" s="7"/>
       <c r="N83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
@@ -1898,7 +1904,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="6"/>
+      <c r="M84" s="7"/>
       <c r="N84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -1914,7 +1920,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-      <c r="M85" s="6"/>
+      <c r="M85" s="7"/>
       <c r="N85" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -1930,7 +1936,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-      <c r="M86" s="6"/>
+      <c r="M86" s="7"/>
       <c r="N86" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -1946,7 +1952,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-      <c r="M87" s="6"/>
+      <c r="M87" s="7"/>
       <c r="N87" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -1962,7 +1968,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="7"/>
       <c r="N88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -1978,7 +1984,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-      <c r="M89" s="6"/>
+      <c r="M89" s="7"/>
       <c r="N89" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -1994,7 +2000,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="M90" s="6"/>
+      <c r="M90" s="7"/>
       <c r="N90" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -2010,7 +2016,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
-      <c r="M91" s="6"/>
+      <c r="M91" s="7"/>
       <c r="N91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -2026,7 +2032,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
-      <c r="M92" s="6"/>
+      <c r="M92" s="7"/>
       <c r="N92" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -2042,7 +2048,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
-      <c r="M93" s="6"/>
+      <c r="M93" s="7"/>
       <c r="N93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -2058,7 +2064,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
-      <c r="M94" s="6"/>
+      <c r="M94" s="7"/>
       <c r="N94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
@@ -2074,7 +2080,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
-      <c r="M95" s="6"/>
+      <c r="M95" s="7"/>
       <c r="N95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -2090,7 +2096,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
-      <c r="M96" s="6"/>
+      <c r="M96" s="7"/>
       <c r="N96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -2106,7 +2112,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
-      <c r="M97" s="6"/>
+      <c r="M97" s="7"/>
       <c r="N97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -2122,7 +2128,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
-      <c r="M98" s="6"/>
+      <c r="M98" s="7"/>
       <c r="N98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -2138,7 +2144,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-      <c r="M99" s="6"/>
+      <c r="M99" s="7"/>
       <c r="N99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
@@ -2154,7 +2160,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-      <c r="M100" s="6"/>
+      <c r="M100" s="7"/>
       <c r="N100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
@@ -2170,7 +2176,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-      <c r="M101" s="6"/>
+      <c r="M101" s="7"/>
       <c r="N101" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
@@ -2186,7 +2192,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-      <c r="M102" s="6"/>
+      <c r="M102" s="7"/>
       <c r="N102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
@@ -2202,7 +2208,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-      <c r="M103" s="6"/>
+      <c r="M103" s="7"/>
       <c r="N103" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -2218,7 +2224,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-      <c r="M104" s="6"/>
+      <c r="M104" s="7"/>
       <c r="N104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
@@ -2234,7 +2240,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-      <c r="M105" s="6"/>
+      <c r="M105" s="7"/>
       <c r="N105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -2250,7 +2256,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-      <c r="M106" s="6"/>
+      <c r="M106" s="7"/>
       <c r="N106" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -2266,7 +2272,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-      <c r="M107" s="6"/>
+      <c r="M107" s="7"/>
       <c r="N107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -2282,7 +2288,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-      <c r="M108" s="6"/>
+      <c r="M108" s="7"/>
       <c r="N108" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
@@ -2298,7 +2304,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-      <c r="M109" s="6"/>
+      <c r="M109" s="7"/>
       <c r="N109" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
@@ -2314,7 +2320,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="6"/>
+      <c r="M110" s="7"/>
       <c r="N110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
@@ -2330,7 +2336,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="6"/>
+      <c r="M111" s="7"/>
       <c r="N111" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
@@ -2346,7 +2352,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="6"/>
+      <c r="M112" s="7"/>
       <c r="N112" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
@@ -2362,7 +2368,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
-      <c r="M113" s="6"/>
+      <c r="M113" s="7"/>
       <c r="N113" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
@@ -2378,7 +2384,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
-      <c r="M114" s="6"/>
+      <c r="M114" s="7"/>
       <c r="N114" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
@@ -2394,7 +2400,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
-      <c r="M115" s="6"/>
+      <c r="M115" s="7"/>
       <c r="N115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
@@ -2410,7 +2416,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
-      <c r="M116" s="6"/>
+      <c r="M116" s="7"/>
       <c r="N116" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
@@ -2426,7 +2432,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
-      <c r="M117" s="6"/>
+      <c r="M117" s="7"/>
       <c r="N117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
@@ -2442,7 +2448,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
-      <c r="M118" s="6"/>
+      <c r="M118" s="7"/>
       <c r="N118" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
@@ -2458,7 +2464,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
-      <c r="M119" s="6"/>
+      <c r="M119" s="7"/>
       <c r="N119" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
@@ -2474,7 +2480,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
-      <c r="M120" s="6"/>
+      <c r="M120" s="7"/>
       <c r="N120" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
@@ -2490,7 +2496,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
-      <c r="M121" s="6"/>
+      <c r="M121" s="7"/>
       <c r="N121" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
@@ -2506,7 +2512,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
-      <c r="M122" s="6"/>
+      <c r="M122" s="7"/>
       <c r="N122" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
@@ -2522,7 +2528,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
-      <c r="M123" s="6"/>
+      <c r="M123" s="7"/>
       <c r="N123" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
@@ -2538,7 +2544,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
-      <c r="M124" s="6"/>
+      <c r="M124" s="7"/>
       <c r="N124" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
@@ -2554,7 +2560,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
-      <c r="M125" s="6"/>
+      <c r="M125" s="7"/>
       <c r="N125" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
@@ -2570,7 +2576,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
-      <c r="M126" s="6"/>
+      <c r="M126" s="7"/>
       <c r="N126" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
@@ -2586,7 +2592,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
-      <c r="M127" s="6"/>
+      <c r="M127" s="7"/>
       <c r="N127" s="2"/>
     </row>
   </sheetData>
